--- a/MailHandler/Data/Configs.xlsx
+++ b/MailHandler/Data/Configs.xlsx
@@ -8,24 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Takashi\OneDrive\Documents\UiPath\MailHandler\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCCCD0AF-F221-4204-A58D-F92F0A193D29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C74DA1CE-C153-4F0A-932B-210B015B0752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Configs" sheetId="1" r:id="rId1"/>
+    <sheet name="ReportLastQuarter" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>Sender</t>
   </si>
@@ -73,13 +83,52 @@
   </si>
   <si>
     <t>STOCK/VPS</t>
+  </si>
+  <si>
+    <t>Stock Symbol</t>
+  </si>
+  <si>
+    <t>Volume Available</t>
+  </si>
+  <si>
+    <t>FPT</t>
+  </si>
+  <si>
+    <t>PNJ</t>
+  </si>
+  <si>
+    <t>HPG</t>
+  </si>
+  <si>
+    <t>VCB</t>
+  </si>
+  <si>
+    <t>SZC</t>
+  </si>
+  <si>
+    <t>CTG</t>
+  </si>
+  <si>
+    <t>BVH</t>
+  </si>
+  <si>
+    <t>DGC</t>
+  </si>
+  <si>
+    <t>DHC</t>
+  </si>
+  <si>
+    <t>Average Price</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="_-* #,##0\ [$₫-42A]_-;\-* #,##0\ [$₫-42A]_-;_-* &quot;-&quot;\ [$₫-42A]_-;_-@_-"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,8 +152,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -117,12 +174,60 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor theme="8" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -131,18 +236,102 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0\ [$₫-42A]_-;\-* #,##0\ [$₫-42A]_-;_-* &quot;-&quot;\ [$₫-42A]_-;_-@_-"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </left>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -153,6 +342,17 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D2F8AD7D-D93E-47D0-8403-05D3AC6E2982}" name="Table1" displayName="Table1" ref="A1:C10" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="5" totalsRowBorderDxfId="3">
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{36CC310C-EEB4-4132-87B5-18CF53D53E12}" name="Stock Symbol" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{26C2F7D5-AF89-4596-BD17-E517579539C4}" name="Volume Available" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{A54002BF-F9EF-4DF6-9CDD-FDB21ADADD62}" name="Average Price" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -420,7 +620,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -510,4 +710,139 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA526FD3-A950-42CB-B3BF-C5C0F09F01CA}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1045</v>
+      </c>
+      <c r="C2" s="4">
+        <v>36280</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="5">
+        <v>333</v>
+      </c>
+      <c r="C3" s="6">
+        <v>97813</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="3">
+        <v>810</v>
+      </c>
+      <c r="C4" s="4">
+        <v>41236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="5">
+        <v>100</v>
+      </c>
+      <c r="C5" s="6">
+        <v>109227</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="3">
+        <v>300</v>
+      </c>
+      <c r="C6" s="4">
+        <v>39217</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="5">
+        <v>200</v>
+      </c>
+      <c r="C7" s="11">
+        <v>44683</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="3">
+        <v>300</v>
+      </c>
+      <c r="C8" s="4">
+        <f>(200*60431 + 100*59100)/300</f>
+        <v>59987.333333333336</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="5">
+        <v>50</v>
+      </c>
+      <c r="C9" s="6">
+        <v>84137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="9">
+        <v>525</v>
+      </c>
+      <c r="C10" s="10">
+        <v>64774</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/MailHandler/Data/Configs.xlsx
+++ b/MailHandler/Data/Configs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Takashi\OneDrive\Documents\UiPath\MailHandler\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\Uipath\MailHandler\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C74DA1CE-C153-4F0A-932B-210B015B0752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52FEF762-51A6-475D-A6B9-53ADE21152C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -313,6 +313,12 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </left>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
         <bottom style="thin">
           <color theme="8" tint="0.39997558519241921"/>
         </bottom>
@@ -320,12 +326,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </left>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
         <bottom style="thin">
           <color theme="8" tint="0.39997558519241921"/>
         </bottom>
@@ -345,7 +345,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D2F8AD7D-D93E-47D0-8403-05D3AC6E2982}" name="Table1" displayName="Table1" ref="A1:C10" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="5" totalsRowBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D2F8AD7D-D93E-47D0-8403-05D3AC6E2982}" name="Table1" displayName="Table1" ref="A1:C10" totalsRowShown="0" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{36CC310C-EEB4-4132-87B5-18CF53D53E12}" name="Stock Symbol" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{26C2F7D5-AF89-4596-BD17-E517579539C4}" name="Volume Available" dataDxfId="1"/>
@@ -717,7 +717,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -833,7 +833,7 @@
         <v>25</v>
       </c>
       <c r="B10" s="9">
-        <v>525</v>
+        <v>545</v>
       </c>
       <c r="C10" s="10">
         <v>64774</v>
